--- a/fermentation_insights/TRY_results/spearman_TAL_corn.xlsx
+++ b/fermentation_insights/TRY_results/spearman_TAL_corn.xlsx
@@ -585,100 +585,100 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.6246200046200047</v>
+        <v>-0.7300567420567421</v>
       </c>
       <c r="D2">
-        <v>-0.4126862086862087</v>
+        <v>-0.2478792798792799</v>
       </c>
       <c r="E2">
-        <v>0.4059063819063819</v>
+        <v>0.281021273021273</v>
       </c>
       <c r="F2">
-        <v>0.3470702390702391</v>
+        <v>0.1816564936564937</v>
       </c>
       <c r="G2">
-        <v>-0.04178818178818179</v>
+        <v>-0.02886565686565687</v>
       </c>
       <c r="H2">
-        <v>-0.07991827991827992</v>
+        <v>-0.09717056517056517</v>
       </c>
       <c r="I2">
-        <v>0.03148307548307548</v>
+        <v>0.02438125238125238</v>
       </c>
       <c r="J2">
-        <v>0.003677847677847678</v>
+        <v>0.00453936453936454</v>
       </c>
       <c r="K2">
-        <v>-0.1045898725898726</v>
+        <v>-0.1036256716256716</v>
       </c>
       <c r="L2">
-        <v>0.02301927501927502</v>
+        <v>0.02503924903924904</v>
       </c>
       <c r="M2">
-        <v>-0.07578229578229578</v>
+        <v>-0.05826181026181027</v>
       </c>
       <c r="N2">
-        <v>-0.1037707637707638</v>
+        <v>-0.01833291033291033</v>
       </c>
       <c r="O2">
-        <v>0.1461823101823102</v>
+        <v>0.2015811695811696</v>
       </c>
       <c r="P2">
-        <v>0.01268212868212868</v>
+        <v>0.01582550782550782</v>
       </c>
       <c r="Q2">
-        <v>0.1104321984321984</v>
+        <v>0.128964152964153</v>
       </c>
       <c r="R2">
-        <v>-0.1967930207930208</v>
+        <v>-0.07492866292866293</v>
       </c>
       <c r="S2">
-        <v>0.06457493257493258</v>
+        <v>0.05591140391140391</v>
       </c>
       <c r="T2">
-        <v>-0.04107406107406107</v>
+        <v>-0.01673118473118473</v>
       </c>
       <c r="U2">
-        <v>-0.5778683058683058</v>
+        <v>-0.6772497652497652</v>
       </c>
       <c r="V2">
-        <v>-0.0295969615969616</v>
+        <v>-0.01537098337098337</v>
       </c>
       <c r="W2">
-        <v>0.01444176244176244</v>
+        <v>0.02045274845274845</v>
       </c>
       <c r="X2">
-        <v>0.03532291132291132</v>
+        <v>0.1279257679257679</v>
       </c>
       <c r="Y2">
-        <v>0.05603836403836404</v>
+        <v>0.06974954174954175</v>
       </c>
       <c r="Z2">
-        <v>-0.2895959175959176</v>
+        <v>-0.1514856194856195</v>
       </c>
       <c r="AA2">
-        <v>-0.4336835536835537</v>
+        <v>-0.3325763365763366</v>
       </c>
       <c r="AB2">
-        <v>-0.03128863928863929</v>
+        <v>-0.03736440136440136</v>
       </c>
       <c r="AC2">
-        <v>0.07728751728751729</v>
+        <v>0.08361493161493161</v>
       </c>
       <c r="AD2">
-        <v>0.006696378696378696</v>
+        <v>0.01960593160593161</v>
       </c>
       <c r="AE2">
-        <v>0.02868134868134868</v>
+        <v>0.02617853017853018</v>
       </c>
       <c r="AF2">
-        <v>-0.02844509244509244</v>
+        <v>-0.01667027267027267</v>
       </c>
       <c r="AG2">
-        <v>0.01143586743586744</v>
+        <v>-0.005376257376257377</v>
       </c>
       <c r="AH2">
-        <v>0.02923324123324123</v>
+        <v>0.0302980262980263</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -686,103 +686,103 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.6246200046200047</v>
+        <v>-0.7300567420567421</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.03910910710910711</v>
+        <v>0.02051072051072051</v>
       </c>
       <c r="E3">
-        <v>-0.2393307713307713</v>
+        <v>-0.1034914034914035</v>
       </c>
       <c r="F3">
-        <v>0.102967002967003</v>
+        <v>0.0862014742014742</v>
       </c>
       <c r="G3">
-        <v>-0.003079023079023079</v>
+        <v>-0.004016260016260017</v>
       </c>
       <c r="H3">
-        <v>-0.03729058929058929</v>
+        <v>-0.03317379317379317</v>
       </c>
       <c r="I3">
-        <v>0.1524799884799885</v>
+        <v>0.1637116877116877</v>
       </c>
       <c r="J3">
-        <v>-0.03735694935694936</v>
+        <v>-0.03656504456504456</v>
       </c>
       <c r="K3">
-        <v>0.04383607983607984</v>
+        <v>0.03612614412614413</v>
       </c>
       <c r="L3">
-        <v>0.004484536484536485</v>
+        <v>0.003126147126147126</v>
       </c>
       <c r="M3">
-        <v>0.01894168294168294</v>
+        <v>0.01659124059124059</v>
       </c>
       <c r="N3">
-        <v>-0.03303989703989704</v>
+        <v>-0.04386469986469987</v>
       </c>
       <c r="O3">
-        <v>-0.2390634110634111</v>
+        <v>-0.2368476568476569</v>
       </c>
       <c r="P3">
-        <v>0.02463872463872464</v>
+        <v>0.02218793818793819</v>
       </c>
       <c r="Q3">
-        <v>0.178044646044646</v>
+        <v>0.1911018471018471</v>
       </c>
       <c r="R3">
-        <v>-0.01886975486975487</v>
+        <v>-0.02612251412251412</v>
       </c>
       <c r="S3">
-        <v>-0.08876260076260076</v>
+        <v>-0.08418344418344419</v>
       </c>
       <c r="T3">
-        <v>-0.03183040383040383</v>
+        <v>-0.03015005415005415</v>
       </c>
       <c r="U3">
-        <v>0.6902699462699463</v>
+        <v>0.7084117204117204</v>
       </c>
       <c r="V3">
-        <v>0.03652105252105252</v>
+        <v>0.03635269235269235</v>
       </c>
       <c r="W3">
-        <v>-0.009352689352689353</v>
+        <v>-0.01085812685812686</v>
       </c>
       <c r="X3">
-        <v>-0.3333752973752974</v>
+        <v>-0.3805839325839326</v>
       </c>
       <c r="Y3">
-        <v>0.03260648060648061</v>
+        <v>0.0257989217989218</v>
       </c>
       <c r="Z3">
-        <v>-0.1378178218178218</v>
+        <v>-0.1057852777852778</v>
       </c>
       <c r="AA3">
-        <v>0.06702767502767502</v>
+        <v>0.06071787671787672</v>
       </c>
       <c r="AB3">
-        <v>0.03978435978435978</v>
+        <v>0.04251088251088251</v>
       </c>
       <c r="AC3">
-        <v>-0.04214333414333414</v>
+        <v>-0.04049114849114849</v>
       </c>
       <c r="AD3">
-        <v>-0.00273013473013473</v>
+        <v>-0.007885291885291886</v>
       </c>
       <c r="AE3">
-        <v>-0.009148797148797148</v>
+        <v>-0.005226017226017226</v>
       </c>
       <c r="AF3">
-        <v>0.003842787842787843</v>
+        <v>0.009968493968493969</v>
       </c>
       <c r="AG3">
-        <v>-0.1608694968694969</v>
+        <v>-0.1640987240987241</v>
       </c>
       <c r="AH3">
-        <v>-0.1778852258852259</v>
+        <v>-0.1842410562410562</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -790,103 +790,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4126862086862087</v>
+        <v>-0.2478792798792799</v>
       </c>
       <c r="C4">
-        <v>0.03910910710910711</v>
+        <v>0.02051072051072051</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.1742114822114822</v>
+        <v>-0.06883102483102484</v>
       </c>
       <c r="F4">
-        <v>-0.1864090144090144</v>
+        <v>-0.1592573432573433</v>
       </c>
       <c r="G4">
-        <v>0.02945856545856546</v>
+        <v>0.03021047421047421</v>
       </c>
       <c r="H4">
-        <v>-0.03783382983382983</v>
+        <v>-0.03743928143928144</v>
       </c>
       <c r="I4">
-        <v>-0.04207395007395007</v>
+        <v>-0.04244453444453444</v>
       </c>
       <c r="J4">
-        <v>0.03776626976626977</v>
+        <v>0.04084764484764485</v>
       </c>
       <c r="K4">
-        <v>0.03766872166872167</v>
+        <v>0.03415999015999016</v>
       </c>
       <c r="L4">
-        <v>0.03119005919005919</v>
+        <v>0.0290986610986611</v>
       </c>
       <c r="M4">
-        <v>0.1607983847983848</v>
+        <v>0.1643280443280443</v>
       </c>
       <c r="N4">
-        <v>0.6375980175980176</v>
+        <v>0.6376858456858456</v>
       </c>
       <c r="O4">
-        <v>-0.0002841482841482841</v>
+        <v>-0.01140813540813541</v>
       </c>
       <c r="P4">
-        <v>0.01672159672159672</v>
+        <v>0.01312389712389712</v>
       </c>
       <c r="Q4">
-        <v>0.0007992967992967993</v>
+        <v>-0.002017010017010017</v>
       </c>
       <c r="R4">
-        <v>0.4210912570912571</v>
+        <v>0.3895774135774136</v>
       </c>
       <c r="S4">
-        <v>0.427044043044043</v>
+        <v>0.4711166071166071</v>
       </c>
       <c r="T4">
-        <v>0.007803475803475803</v>
+        <v>0.001448797448797449</v>
       </c>
       <c r="U4">
-        <v>0.07536873936873936</v>
+        <v>0.07154765954765954</v>
       </c>
       <c r="V4">
-        <v>-0.01515815115815116</v>
+        <v>-0.02146599346599347</v>
       </c>
       <c r="W4">
-        <v>0.003165015165015165</v>
+        <v>0.0004805524805524805</v>
       </c>
       <c r="X4">
-        <v>0.05412906612906613</v>
+        <v>0.01013429813429814</v>
       </c>
       <c r="Y4">
-        <v>0.0362981402981403</v>
+        <v>0.03867840267840268</v>
       </c>
       <c r="Z4">
-        <v>0.1634329034329034</v>
+        <v>0.1516086556086556</v>
       </c>
       <c r="AA4">
-        <v>0.2652665412665413</v>
+        <v>0.2654016254016254</v>
       </c>
       <c r="AB4">
-        <v>0.1392836832836833</v>
+        <v>0.1493213813213813</v>
       </c>
       <c r="AC4">
-        <v>-0.0182005022005022</v>
+        <v>-0.01965401565401565</v>
       </c>
       <c r="AD4">
-        <v>-0.005903201903201903</v>
+        <v>-0.01375461775461775</v>
       </c>
       <c r="AE4">
-        <v>-0.01155644355644356</v>
+        <v>-0.007299259299259299</v>
       </c>
       <c r="AF4">
-        <v>0.0416972096972097</v>
+        <v>0.04085416085416085</v>
       </c>
       <c r="AG4">
-        <v>-0.06597070197070197</v>
+        <v>-0.06626562626562627</v>
       </c>
       <c r="AH4">
-        <v>0.01993757593757594</v>
+        <v>0.02772227172227172</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -894,103 +894,103 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4059063819063819</v>
+        <v>0.281021273021273</v>
       </c>
       <c r="C5">
-        <v>-0.2393307713307713</v>
+        <v>-0.1034914034914035</v>
       </c>
       <c r="D5">
-        <v>-0.1742114822114822</v>
+        <v>-0.06883102483102484</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.2156397476397476</v>
+        <v>-0.3651185571185571</v>
       </c>
       <c r="G5">
-        <v>-0.009413709413709413</v>
+        <v>-0.003145179145179145</v>
       </c>
       <c r="H5">
-        <v>-0.01946789546789547</v>
+        <v>-0.02251701451701452</v>
       </c>
       <c r="I5">
-        <v>0.0758000798000798</v>
+        <v>0.0765995445995446</v>
       </c>
       <c r="J5">
-        <v>0.01134271134271134</v>
+        <v>0.007878007878007878</v>
       </c>
       <c r="K5">
-        <v>-0.06289601089601089</v>
+        <v>-0.04536641736641737</v>
       </c>
       <c r="L5">
-        <v>-0.0163001323001323</v>
+        <v>-0.02300555900555901</v>
       </c>
       <c r="M5">
-        <v>0.01714790914790915</v>
+        <v>0.02484418884418884</v>
       </c>
       <c r="N5">
-        <v>0.00105034905034905</v>
+        <v>0.02291055491055491</v>
       </c>
       <c r="O5">
-        <v>0.0239002559002559</v>
+        <v>0.001742269742269742</v>
       </c>
       <c r="P5">
-        <v>-0.02324917124917125</v>
+        <v>-0.02362775962775963</v>
       </c>
       <c r="Q5">
-        <v>0.1121988641988642</v>
+        <v>0.1205121125121125</v>
       </c>
       <c r="R5">
-        <v>-0.05663684063684064</v>
+        <v>-0.0403967083967084</v>
       </c>
       <c r="S5">
-        <v>0.08731682731682731</v>
+        <v>0.09427855027855028</v>
       </c>
       <c r="T5">
-        <v>-0.00124011724011724</v>
+        <v>0.02328311928311928</v>
       </c>
       <c r="U5">
-        <v>0.1302976902976903</v>
+        <v>0.1811913371913372</v>
       </c>
       <c r="V5">
-        <v>-0.06091142491142491</v>
+        <v>-0.06647407847407848</v>
       </c>
       <c r="W5">
-        <v>-0.007035451035451035</v>
+        <v>0.002693534693534694</v>
       </c>
       <c r="X5">
-        <v>-0.07656754056754057</v>
+        <v>-0.02512520512520513</v>
       </c>
       <c r="Y5">
-        <v>0.05158455958455958</v>
+        <v>0.09175783975783976</v>
       </c>
       <c r="Z5">
-        <v>0.2619704019704019</v>
+        <v>0.3891254211254211</v>
       </c>
       <c r="AA5">
-        <v>-0.1736280176280176</v>
+        <v>-0.06197505797505797</v>
       </c>
       <c r="AB5">
-        <v>0.02402790002790003</v>
+        <v>0.03586353586353586</v>
       </c>
       <c r="AC5">
-        <v>0.03110814710814711</v>
+        <v>0.02555041355041355</v>
       </c>
       <c r="AD5">
-        <v>-0.02002017202017202</v>
+        <v>-0.01531675531675532</v>
       </c>
       <c r="AE5">
-        <v>0.01835507435507435</v>
+        <v>0.0119018639018639</v>
       </c>
       <c r="AF5">
-        <v>0.04204981804981805</v>
+        <v>0.04882801282801283</v>
       </c>
       <c r="AG5">
-        <v>-0.01923723123723124</v>
+        <v>-0.0318959958959959</v>
       </c>
       <c r="AH5">
-        <v>0.00607979407979408</v>
+        <v>0.01631435231435232</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -998,103 +998,103 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3470702390702391</v>
+        <v>0.1816564936564937</v>
       </c>
       <c r="C6">
-        <v>0.102967002967003</v>
+        <v>0.0862014742014742</v>
       </c>
       <c r="D6">
-        <v>-0.1864090144090144</v>
+        <v>-0.1592573432573433</v>
       </c>
       <c r="E6">
-        <v>-0.2156397476397476</v>
+        <v>-0.3651185571185571</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.07209380409380409</v>
+        <v>-0.07213203613203613</v>
       </c>
       <c r="H6">
-        <v>-0.03526064326064326</v>
+        <v>-0.03369490569490569</v>
       </c>
       <c r="I6">
-        <v>-0.001876093876093876</v>
+        <v>-0.004199068199068199</v>
       </c>
       <c r="J6">
-        <v>-0.02685861885861886</v>
+        <v>-0.02642601842601842</v>
       </c>
       <c r="K6">
-        <v>-0.003752583752583753</v>
+        <v>-0.002292158292158292</v>
       </c>
       <c r="L6">
-        <v>0.01457864657864658</v>
+        <v>0.01246452046452047</v>
       </c>
       <c r="M6">
-        <v>-0.0143957663957664</v>
+        <v>-0.01212056412056412</v>
       </c>
       <c r="N6">
-        <v>0.004447660447660448</v>
+        <v>0.005067977067977068</v>
       </c>
       <c r="O6">
-        <v>-0.02402239202239202</v>
+        <v>-0.02760891960891961</v>
       </c>
       <c r="P6">
-        <v>0.03254470454470455</v>
+        <v>0.03161079161079161</v>
       </c>
       <c r="Q6">
-        <v>-0.03271990471990472</v>
+        <v>-0.03645780045780046</v>
       </c>
       <c r="R6">
-        <v>-0.06448885648885649</v>
+        <v>-0.06248136248136248</v>
       </c>
       <c r="S6">
-        <v>-0.01979503979503979</v>
+        <v>-0.02008053208053208</v>
       </c>
       <c r="T6">
-        <v>-0.0591992991992992</v>
+        <v>-0.05526911526911527</v>
       </c>
       <c r="U6">
-        <v>-0.009863145863145862</v>
+        <v>-0.008769596769596769</v>
       </c>
       <c r="V6">
-        <v>0.006028950028950029</v>
+        <v>0.005564657564657564</v>
       </c>
       <c r="W6">
-        <v>0.0108002148002148</v>
+        <v>0.01104154704154704</v>
       </c>
       <c r="X6">
-        <v>0.03013494613494613</v>
+        <v>0.01820713820713821</v>
       </c>
       <c r="Y6">
-        <v>-0.02162396162396162</v>
+        <v>-0.0223018903018903</v>
       </c>
       <c r="Z6">
-        <v>-0.9653031173031174</v>
+        <v>-0.9659026859026859</v>
       </c>
       <c r="AA6">
-        <v>-0.08091453291453292</v>
+        <v>-0.03055032655032655</v>
       </c>
       <c r="AB6">
-        <v>0.009846561846561847</v>
+        <v>0.01246304446304446</v>
       </c>
       <c r="AC6">
-        <v>0.2433067233067233</v>
+        <v>0.2548501708501709</v>
       </c>
       <c r="AD6">
-        <v>0.01242745242745243</v>
+        <v>0.01127895527895528</v>
       </c>
       <c r="AE6">
-        <v>-0.0001659001659001659</v>
+        <v>-0.0005925845925845926</v>
       </c>
       <c r="AF6">
-        <v>-0.03736258936258936</v>
+        <v>-0.03383820983820984</v>
       </c>
       <c r="AG6">
-        <v>0.01143011943011943</v>
+        <v>0.008104256104256104</v>
       </c>
       <c r="AH6">
-        <v>-0.02787638787638788</v>
+        <v>-0.02668311868311868</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1102,19 +1102,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.04178818178818179</v>
+        <v>-0.02886565686565687</v>
       </c>
       <c r="C7">
-        <v>-0.003079023079023079</v>
+        <v>-0.004016260016260017</v>
       </c>
       <c r="D7">
-        <v>0.02945856545856546</v>
+        <v>0.03021047421047421</v>
       </c>
       <c r="E7">
-        <v>-0.009413709413709413</v>
+        <v>-0.003145179145179145</v>
       </c>
       <c r="F7">
-        <v>-0.07209380409380409</v>
+        <v>-0.07213203613203613</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1206,19 +1206,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.07991827991827992</v>
+        <v>-0.09717056517056517</v>
       </c>
       <c r="C8">
-        <v>-0.03729058929058929</v>
+        <v>-0.03317379317379317</v>
       </c>
       <c r="D8">
-        <v>-0.03783382983382983</v>
+        <v>-0.03743928143928144</v>
       </c>
       <c r="E8">
-        <v>-0.01946789546789547</v>
+        <v>-0.02251701451701452</v>
       </c>
       <c r="F8">
-        <v>-0.03526064326064326</v>
+        <v>-0.03369490569490569</v>
       </c>
       <c r="G8">
         <v>0.007067527067527068</v>
@@ -1310,19 +1310,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03148307548307548</v>
+        <v>0.02438125238125238</v>
       </c>
       <c r="C9">
-        <v>0.1524799884799885</v>
+        <v>0.1637116877116877</v>
       </c>
       <c r="D9">
-        <v>-0.04207395007395007</v>
+        <v>-0.04244453444453444</v>
       </c>
       <c r="E9">
-        <v>0.0758000798000798</v>
+        <v>0.0765995445995446</v>
       </c>
       <c r="F9">
-        <v>-0.001876093876093876</v>
+        <v>-0.004199068199068199</v>
       </c>
       <c r="G9">
         <v>0.0009671049671049671</v>
@@ -1414,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.003677847677847678</v>
+        <v>0.00453936453936454</v>
       </c>
       <c r="C10">
-        <v>-0.03735694935694936</v>
+        <v>-0.03656504456504456</v>
       </c>
       <c r="D10">
-        <v>0.03776626976626977</v>
+        <v>0.04084764484764485</v>
       </c>
       <c r="E10">
-        <v>0.01134271134271134</v>
+        <v>0.007878007878007878</v>
       </c>
       <c r="F10">
-        <v>-0.02685861885861886</v>
+        <v>-0.02642601842601842</v>
       </c>
       <c r="G10">
         <v>0.00234015834015834</v>
@@ -1518,19 +1518,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1045898725898726</v>
+        <v>-0.1036256716256716</v>
       </c>
       <c r="C11">
-        <v>0.04383607983607984</v>
+        <v>0.03612614412614413</v>
       </c>
       <c r="D11">
-        <v>0.03766872166872167</v>
+        <v>0.03415999015999016</v>
       </c>
       <c r="E11">
-        <v>-0.06289601089601089</v>
+        <v>-0.04536641736641737</v>
       </c>
       <c r="F11">
-        <v>-0.003752583752583753</v>
+        <v>-0.002292158292158292</v>
       </c>
       <c r="G11">
         <v>0.01380907380907381</v>
@@ -1622,19 +1622,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02301927501927502</v>
+        <v>0.02503924903924904</v>
       </c>
       <c r="C12">
-        <v>0.004484536484536485</v>
+        <v>0.003126147126147126</v>
       </c>
       <c r="D12">
-        <v>0.03119005919005919</v>
+        <v>0.0290986610986611</v>
       </c>
       <c r="E12">
-        <v>-0.0163001323001323</v>
+        <v>-0.02300555900555901</v>
       </c>
       <c r="F12">
-        <v>0.01457864657864658</v>
+        <v>0.01246452046452047</v>
       </c>
       <c r="G12">
         <v>0.04491608091608092</v>
@@ -1726,19 +1726,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.07578229578229578</v>
+        <v>-0.05826181026181027</v>
       </c>
       <c r="C13">
-        <v>0.01894168294168294</v>
+        <v>0.01659124059124059</v>
       </c>
       <c r="D13">
-        <v>0.1607983847983848</v>
+        <v>0.1643280443280443</v>
       </c>
       <c r="E13">
-        <v>0.01714790914790915</v>
+        <v>0.02484418884418884</v>
       </c>
       <c r="F13">
-        <v>-0.0143957663957664</v>
+        <v>-0.01212056412056412</v>
       </c>
       <c r="G13">
         <v>-0.04308007908007908</v>
@@ -1830,19 +1830,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.1037707637707638</v>
+        <v>-0.01833291033291033</v>
       </c>
       <c r="C14">
-        <v>-0.03303989703989704</v>
+        <v>-0.04386469986469987</v>
       </c>
       <c r="D14">
-        <v>0.6375980175980176</v>
+        <v>0.6376858456858456</v>
       </c>
       <c r="E14">
-        <v>0.00105034905034905</v>
+        <v>0.02291055491055491</v>
       </c>
       <c r="F14">
-        <v>0.004447660447660448</v>
+        <v>0.005067977067977068</v>
       </c>
       <c r="G14">
         <v>0.01511738711738712</v>
@@ -1934,19 +1934,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1461823101823102</v>
+        <v>0.2015811695811696</v>
       </c>
       <c r="C15">
-        <v>-0.2390634110634111</v>
+        <v>-0.2368476568476569</v>
       </c>
       <c r="D15">
-        <v>-0.0002841482841482841</v>
+        <v>-0.01140813540813541</v>
       </c>
       <c r="E15">
-        <v>0.0239002559002559</v>
+        <v>0.001742269742269742</v>
       </c>
       <c r="F15">
-        <v>-0.02402239202239202</v>
+        <v>-0.02760891960891961</v>
       </c>
       <c r="G15">
         <v>-0.01886572286572287</v>
@@ -2038,19 +2038,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01268212868212868</v>
+        <v>0.01582550782550782</v>
       </c>
       <c r="C16">
-        <v>0.02463872463872464</v>
+        <v>0.02218793818793819</v>
       </c>
       <c r="D16">
-        <v>0.01672159672159672</v>
+        <v>0.01312389712389712</v>
       </c>
       <c r="E16">
-        <v>-0.02324917124917125</v>
+        <v>-0.02362775962775963</v>
       </c>
       <c r="F16">
-        <v>0.03254470454470455</v>
+        <v>0.03161079161079161</v>
       </c>
       <c r="G16">
         <v>0.01828563028563028</v>
@@ -2142,19 +2142,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1104321984321984</v>
+        <v>0.128964152964153</v>
       </c>
       <c r="C17">
-        <v>0.178044646044646</v>
+        <v>0.1911018471018471</v>
       </c>
       <c r="D17">
-        <v>0.0007992967992967993</v>
+        <v>-0.002017010017010017</v>
       </c>
       <c r="E17">
-        <v>0.1121988641988642</v>
+        <v>0.1205121125121125</v>
       </c>
       <c r="F17">
-        <v>-0.03271990471990472</v>
+        <v>-0.03645780045780046</v>
       </c>
       <c r="G17">
         <v>-0.0411973371973372</v>
@@ -2246,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1967930207930208</v>
+        <v>-0.07492866292866293</v>
       </c>
       <c r="C18">
-        <v>-0.01886975486975487</v>
+        <v>-0.02612251412251412</v>
       </c>
       <c r="D18">
-        <v>0.4210912570912571</v>
+        <v>0.3895774135774136</v>
       </c>
       <c r="E18">
-        <v>-0.05663684063684064</v>
+        <v>-0.0403967083967084</v>
       </c>
       <c r="F18">
-        <v>-0.06448885648885649</v>
+        <v>-0.06248136248136248</v>
       </c>
       <c r="G18">
         <v>0.01486673086673087</v>
@@ -2350,19 +2350,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06457493257493258</v>
+        <v>0.05591140391140391</v>
       </c>
       <c r="C19">
-        <v>-0.08876260076260076</v>
+        <v>-0.08418344418344419</v>
       </c>
       <c r="D19">
-        <v>0.427044043044043</v>
+        <v>0.4711166071166071</v>
       </c>
       <c r="E19">
-        <v>0.08731682731682731</v>
+        <v>0.09427855027855028</v>
       </c>
       <c r="F19">
-        <v>-0.01979503979503979</v>
+        <v>-0.02008053208053208</v>
       </c>
       <c r="G19">
         <v>0.02354589554589554</v>
@@ -2454,19 +2454,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.04107406107406107</v>
+        <v>-0.01673118473118473</v>
       </c>
       <c r="C20">
-        <v>-0.03183040383040383</v>
+        <v>-0.03015005415005415</v>
       </c>
       <c r="D20">
-        <v>0.007803475803475803</v>
+        <v>0.001448797448797449</v>
       </c>
       <c r="E20">
-        <v>-0.00124011724011724</v>
+        <v>0.02328311928311928</v>
       </c>
       <c r="F20">
-        <v>-0.0591992991992992</v>
+        <v>-0.05526911526911527</v>
       </c>
       <c r="G20">
         <v>0.06232009432009432</v>
@@ -2558,19 +2558,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.5778683058683058</v>
+        <v>-0.6772497652497652</v>
       </c>
       <c r="C21">
-        <v>0.6902699462699463</v>
+        <v>0.7084117204117204</v>
       </c>
       <c r="D21">
-        <v>0.07536873936873936</v>
+        <v>0.07154765954765954</v>
       </c>
       <c r="E21">
-        <v>0.1302976902976903</v>
+        <v>0.1811913371913372</v>
       </c>
       <c r="F21">
-        <v>-0.009863145863145862</v>
+        <v>-0.008769596769596769</v>
       </c>
       <c r="G21">
         <v>0.006152334152334152</v>
@@ -2662,19 +2662,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.0295969615969616</v>
+        <v>-0.01537098337098337</v>
       </c>
       <c r="C22">
-        <v>0.03652105252105252</v>
+        <v>0.03635269235269235</v>
       </c>
       <c r="D22">
-        <v>-0.01515815115815116</v>
+        <v>-0.02146599346599347</v>
       </c>
       <c r="E22">
-        <v>-0.06091142491142491</v>
+        <v>-0.06647407847407848</v>
       </c>
       <c r="F22">
-        <v>0.006028950028950029</v>
+        <v>0.005564657564657564</v>
       </c>
       <c r="G22">
         <v>-0.0837004677004677</v>
@@ -2766,19 +2766,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01444176244176244</v>
+        <v>0.02045274845274845</v>
       </c>
       <c r="C23">
-        <v>-0.009352689352689353</v>
+        <v>-0.01085812685812686</v>
       </c>
       <c r="D23">
-        <v>0.003165015165015165</v>
+        <v>0.0004805524805524805</v>
       </c>
       <c r="E23">
-        <v>-0.007035451035451035</v>
+        <v>0.002693534693534694</v>
       </c>
       <c r="F23">
-        <v>0.0108002148002148</v>
+        <v>0.01104154704154704</v>
       </c>
       <c r="G23">
         <v>0.01762546162546163</v>
@@ -2870,19 +2870,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03532291132291132</v>
+        <v>0.1279257679257679</v>
       </c>
       <c r="C24">
-        <v>-0.3333752973752974</v>
+        <v>-0.3805839325839326</v>
       </c>
       <c r="D24">
-        <v>0.05412906612906613</v>
+        <v>0.01013429813429814</v>
       </c>
       <c r="E24">
-        <v>-0.07656754056754057</v>
+        <v>-0.02512520512520513</v>
       </c>
       <c r="F24">
-        <v>0.03013494613494613</v>
+        <v>0.01820713820713821</v>
       </c>
       <c r="G24">
         <v>-0.008087024087024088</v>
@@ -2974,19 +2974,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05603836403836404</v>
+        <v>0.06974954174954175</v>
       </c>
       <c r="C25">
-        <v>0.03260648060648061</v>
+        <v>0.0257989217989218</v>
       </c>
       <c r="D25">
-        <v>0.0362981402981403</v>
+        <v>0.03867840267840268</v>
       </c>
       <c r="E25">
-        <v>0.05158455958455958</v>
+        <v>0.09175783975783976</v>
       </c>
       <c r="F25">
-        <v>-0.02162396162396162</v>
+        <v>-0.0223018903018903</v>
       </c>
       <c r="G25">
         <v>0.04504647304647304</v>
@@ -3078,19 +3078,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.2895959175959176</v>
+        <v>-0.1514856194856195</v>
       </c>
       <c r="C26">
-        <v>-0.1378178218178218</v>
+        <v>-0.1057852777852778</v>
       </c>
       <c r="D26">
-        <v>0.1634329034329034</v>
+        <v>0.1516086556086556</v>
       </c>
       <c r="E26">
-        <v>0.2619704019704019</v>
+        <v>0.3891254211254211</v>
       </c>
       <c r="F26">
-        <v>-0.9653031173031174</v>
+        <v>-0.9659026859026859</v>
       </c>
       <c r="G26">
         <v>0.06554629754629755</v>
@@ -3182,19 +3182,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.4336835536835537</v>
+        <v>-0.3325763365763366</v>
       </c>
       <c r="C27">
-        <v>0.06702767502767502</v>
+        <v>0.06071787671787672</v>
       </c>
       <c r="D27">
-        <v>0.2652665412665413</v>
+        <v>0.2654016254016254</v>
       </c>
       <c r="E27">
-        <v>-0.1736280176280176</v>
+        <v>-0.06197505797505797</v>
       </c>
       <c r="F27">
-        <v>-0.08091453291453292</v>
+        <v>-0.03055032655032655</v>
       </c>
       <c r="G27">
         <v>-0.004333744333744334</v>
@@ -3286,19 +3286,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.03128863928863929</v>
+        <v>-0.03736440136440136</v>
       </c>
       <c r="C28">
-        <v>0.03978435978435978</v>
+        <v>0.04251088251088251</v>
       </c>
       <c r="D28">
-        <v>0.1392836832836833</v>
+        <v>0.1493213813213813</v>
       </c>
       <c r="E28">
-        <v>0.02402790002790003</v>
+        <v>0.03586353586353586</v>
       </c>
       <c r="F28">
-        <v>0.009846561846561847</v>
+        <v>0.01246304446304446</v>
       </c>
       <c r="G28">
         <v>0.03506233106233106</v>
@@ -3390,19 +3390,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.07728751728751729</v>
+        <v>0.08361493161493161</v>
       </c>
       <c r="C29">
-        <v>-0.04214333414333414</v>
+        <v>-0.04049114849114849</v>
       </c>
       <c r="D29">
-        <v>-0.0182005022005022</v>
+        <v>-0.01965401565401565</v>
       </c>
       <c r="E29">
-        <v>0.03110814710814711</v>
+        <v>0.02555041355041355</v>
       </c>
       <c r="F29">
-        <v>0.2433067233067233</v>
+        <v>0.2548501708501709</v>
       </c>
       <c r="G29">
         <v>-0.04510796110796111</v>
@@ -3494,19 +3494,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.006696378696378696</v>
+        <v>0.01960593160593161</v>
       </c>
       <c r="C30">
-        <v>-0.00273013473013473</v>
+        <v>-0.007885291885291886</v>
       </c>
       <c r="D30">
-        <v>-0.005903201903201903</v>
+        <v>-0.01375461775461775</v>
       </c>
       <c r="E30">
-        <v>-0.02002017202017202</v>
+        <v>-0.01531675531675532</v>
       </c>
       <c r="F30">
-        <v>0.01242745242745243</v>
+        <v>0.01127895527895528</v>
       </c>
       <c r="G30">
         <v>0.009766245766245766</v>
@@ -3598,19 +3598,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.02868134868134868</v>
+        <v>0.02617853017853018</v>
       </c>
       <c r="C31">
-        <v>-0.009148797148797148</v>
+        <v>-0.005226017226017226</v>
       </c>
       <c r="D31">
-        <v>-0.01155644355644356</v>
+        <v>-0.007299259299259299</v>
       </c>
       <c r="E31">
-        <v>0.01835507435507435</v>
+        <v>0.0119018639018639</v>
       </c>
       <c r="F31">
-        <v>-0.0001659001659001659</v>
+        <v>-0.0005925845925845926</v>
       </c>
       <c r="G31">
         <v>-0.008985632985632985</v>
@@ -3702,19 +3702,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.02844509244509244</v>
+        <v>-0.01667027267027267</v>
       </c>
       <c r="C32">
-        <v>0.003842787842787843</v>
+        <v>0.009968493968493969</v>
       </c>
       <c r="D32">
-        <v>0.0416972096972097</v>
+        <v>0.04085416085416085</v>
       </c>
       <c r="E32">
-        <v>0.04204981804981805</v>
+        <v>0.04882801282801283</v>
       </c>
       <c r="F32">
-        <v>-0.03736258936258936</v>
+        <v>-0.03383820983820984</v>
       </c>
       <c r="G32">
         <v>0.01893771093771094</v>
@@ -3806,19 +3806,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01143586743586744</v>
+        <v>-0.005376257376257377</v>
       </c>
       <c r="C33">
-        <v>-0.1608694968694969</v>
+        <v>-0.1640987240987241</v>
       </c>
       <c r="D33">
-        <v>-0.06597070197070197</v>
+        <v>-0.06626562626562627</v>
       </c>
       <c r="E33">
-        <v>-0.01923723123723124</v>
+        <v>-0.0318959958959959</v>
       </c>
       <c r="F33">
-        <v>0.01143011943011943</v>
+        <v>0.008104256104256104</v>
       </c>
       <c r="G33">
         <v>0.0009374649374649374</v>
@@ -3910,19 +3910,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.02923324123324123</v>
+        <v>0.0302980262980263</v>
       </c>
       <c r="C34">
-        <v>-0.1778852258852259</v>
+        <v>-0.1842410562410562</v>
       </c>
       <c r="D34">
-        <v>0.01993757593757594</v>
+        <v>0.02772227172227172</v>
       </c>
       <c r="E34">
-        <v>0.00607979407979408</v>
+        <v>0.01631435231435232</v>
       </c>
       <c r="F34">
-        <v>-0.02787638787638788</v>
+        <v>-0.02668311868311868</v>
       </c>
       <c r="G34">
         <v>-0.01662877662877663</v>
